--- a/assets/Year2023text/combined/2023_student_2.xlsx
+++ b/assets/Year2023text/combined/2023_student_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,47 +458,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">How to incorporate technological tool:  Klotski: wood, laser cut or engraved Tangrams: 3d printed pieces, 2d constructed boards, 3d wood base for board, velcro Sculpture: clay Pom pom pets: gather materials from lab, construct accessories using circuit ? </t>
+          <t xml:space="preserve">Idea + Blueprint: I got so intrigued and excited when I first saw the mobius strip at TLTL. </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7479255199432373</v>
+        <v>0.8459420204162598</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">History cards: 2d illustration design, print, laminate Sound when opening the box: gogo board Snitch: construct using lab materials, sewing it using sewing machine  Powerful Responses from User-testing Interview  "Everything is more fun when its physical; I felt every activity is less engaging when conducting virtually because you never know who is the host..."  Ideas before Interview #2:  There are four sections in this game box, each corresponding to one of the Harry Potter houses. </t>
+          <t xml:space="preserve">It was fascinating given that we can make something bendable out of the rigid wood. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5608336925506592</v>
+        <v>0.6513335704803467</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">We are going to change the cards to get rid of the word scramble and instead redesign it as a 2 player game, where one player guesses the historical figure  An example of how the box could look; we hope to including some code/electronic/mechanism elements into the design - when the box opens it will make a sound by connecting it to a gogo board. </t>
+          <t xml:space="preserve">I realized mobius strip resembles the feather(train) of the male peacock. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6046757102012634</v>
+        <v>0.4986065328121185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will construct ones with numbers as she prefers, instead of the picture and number types shown here  Four things that we mainly focus on our user-testing process was:  1. </t>
+          <t xml:space="preserve">Trial &amp; Error: I had to play with mobius strip svg file to get the exact degree of curve that I wanted for the peacock's feather(train). </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,18 +527,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7441791892051697</v>
+        <v>0.6227824687957764</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">DinoQuake  Changes to Design: - Now a storytelling kit, with background and moveable parts - Added a recorder/repeater to add sounds to the dino  Prototype Progress: - Legs only worked occasionally on a cardboard prototype (not brought to interview) - 3D-printed body based on a design we found online - Background for storytelling kit built with Quake embroidered and red LEDs sewn inÂ â  Observations From Interview: - Colt said âit doesnât talkâ but didnât mention much about the moving -Question: what does Quake walk on? </t>
+          <t xml:space="preserve">Final Stage: I made three little rectangle-shaped cuts on the edge of the mobius strip to insert it on the side-edge of the peacock's body and stabilize the feather(train). </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -547,18 +547,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6710153222084045</v>
+        <v>0.6675859689712524</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">However, testing a prototype with none of the features we had originally planned, the kid still really enjoyed the toy. </t>
+          <t xml:space="preserve">But now I became an inventor who could make the toolkit for the animal 3D wooden puzzle and it makes me feel like I--as we--am forging community altogether and empowered/get more agency of belonging. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -567,18 +567,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7712923288345337</v>
+        <v>0.6502600312232971</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">We added circuit playground to the saddle of the horse and enabled Koko to play with it when you put another stuffed animal on top of the horse by pressing a button. </t>
+          <t xml:space="preserve">As a beginner using design tools on the computer and little experience with the laser cutting machine, I decided to start from a simple design and see how it worked. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5681748986244202</v>
+        <v>0.4800373315811157</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -598,16 +598,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">We built two options no control the motor of the carriage: use of a switch or remote control. </t>
+          <t xml:space="preserve">first iteration: I looked at my prototype and observed it was too simple. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.778372585773468</v>
+        <v>0.5056076645851135</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">B) Carriage Option 1 : Control the carriage with a switch in Gogo 6 Option 2 : Control the carriage with a remote control in Gogo 5  While creating the carriage and making the motor work, we observed that the wheels turned in different directions. </t>
+          <t xml:space="preserve">I tested it in the laser cutting machine with cardboard. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7599920630455017</v>
+        <v>0.8006872534751892</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -638,16 +638,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Akio explained us that the reason of this situation was the polarity: the cables of each wheel were different and we had to introduce some changes in the code the Gogo 5 (one wheel turns clockwise and the other one counter-clockwise). </t>
+          <t xml:space="preserve">I got more experience using the laser cutting machine. </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6831264495849609</v>
+        <v>0.488251268863678</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -658,47 +658,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">In Gogo 6, the polarity of cables didn't affect the code and the carriage goes forward turning clockwise. </t>
+          <t xml:space="preserve">It was really difficult for me to sketch and plan before using the laser cutter because the logic didn't make sense in my head, until I did my first printing iteration. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6867532730102539</v>
+        <v>0.7734143137931824</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Test of the prototype (2nd Interview with Koko)  General Setup Prototype markers/paper &gt;&gt; let Koko to express freely Extra gogoboard Horse Diagram  Koko expressed interest on buttons/functions of gogo board; she showed that those are what her dad/brother are good at, so hopefully, this toy can empower her (woman) STEM identity. </t>
+          <t xml:space="preserve">This reflection process of the modifications I could have made with more time created a second lightbulb moment, so now I feel much more equipped to actually design and execute laser cut projects in the future. </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.520557701587677</v>
+        <v>0.7214562892913818</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will use the laser cutter to cut multiple slots in the board to allow him to customize and move the sticks to different locations to create his own obstacles at different heights around the board. </t>
+          <t xml:space="preserve">The illustration technique used in the drawings are painted tissue and collage When all the parts were draw, I laser cut my prototype. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,18 +707,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6595578789710999</v>
+        <v>0.72165447473526</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">There will be lights on the hoops that can be switched on/off or change colors. </t>
+          <t xml:space="preserve">First in cardboard and then on MDF. </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -727,98 +727,98 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.647237241268158</v>
+        <v>0.8469940423965454</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will drill holes into the sticks to allow him to connect pipe cleaners to create different shapes with. </t>
+          <t xml:space="preserve">Becoming familiar with the laser cut was an exciting experience for me. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6379289627075195</v>
+        <v>0.8969141840934753</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Process of creating a switch that can change the color of the LED lights. </t>
+          <t xml:space="preserve">One of my biggest inspirations for my laser cut project was my daughter's book. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5906245708465576</v>
+        <v>0.868074893951416</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">These will be added to the loops on the obstacle course and he will be able to control the lights by using the switch. </t>
+          <t>Overall, it was a fun and satisfying experience to see my designs come to life through the use of the laser cut.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6405292749404907</v>
+        <v>0.9185230135917664</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prototype Testing: we added different materials and objects to test whether the drone would fly with added weight, or different shapes, and how this affected control and maneuvering around objects. </t>
+          <t xml:space="preserve">I tried sketching their bodies, but their mouth/beak was a problem. </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7641851902008057</v>
+        <v>0.7947002649307251</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">We added circuit playground to the saddle of the horse and enabled Koko to play with it when you put another stuffed animal on top of the horse by pressing a button. </t>
+          <t xml:space="preserve">Coincidentally, I found the "donkey wood animal" that belonged to my grandfather. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -827,18 +827,18 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5681748986244202</v>
+        <v>0.6359806060791016</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">We built two options no control the motor of the carriage: use of a switch or remote control. </t>
+          <t xml:space="preserve">Because I was using my computer without a mouse to manipulate the platform tools and wanted the drawing to be as proportionally as possible, I first used geometric squared forms to create the body (Image 1). </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,18 +847,18 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.778372585773468</v>
+        <v>0.6952460408210754</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">B) Carriage Option 1 : Control the carriage with a switch in Gogo 6 Option 2 : Control the carriage with a remote control in Gogo 5  While creating the carriage and making the motor work, we observed that the wheels turned in different directions. </t>
+          <t xml:space="preserve">So, again, I resort to a physical prototype to help me emulate how the connections would happen (Image 4). </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -867,38 +867,38 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7599920630455017</v>
+        <v>0.6166802048683167</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Akio explained us that the reason of this situation was the polarity: the cables of each wheel were different and we had to introduce some changes in the code the Gogo 5 (one wheel turns clockwise and the other one counter-clockwise). </t>
+          <t xml:space="preserve">Another problem was the "drawing shadows." Because I used the rubber function to erase the lines or shapes I wasn't going to use, the first print considered these "shadows" and cut them. </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6831264495849609</v>
+        <v>0.7068364024162292</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">In Gogo 6, the polarity of cables didn't affect the code and the carriage goes forward turning clockwise. </t>
+          <t xml:space="preserve">Second, the machine was not working, so we used the "new" laser cut. </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -907,118 +907,118 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6867532730102539</v>
+        <v>0.7210128903388977</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Test of the prototype (2nd Interview with Koko)  General Setup Prototype markers/paper &gt;&gt; let Koko to express freely Extra gogoboard Horse Diagram  Koko expressed interest on buttons/functions of gogo board; she showed that those are what her dad/brother are good at, so hopefully, this toy can empower her (woman) STEM identity. </t>
+          <t xml:space="preserve">Seeing my draw on the wood on the previous digitally printed page was great, but it didn't work. </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.520557701587677</v>
+        <v>0.6897234320640564</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adding digital affordability  We researched extensively about toys for developing technological competency and computational thinking, such as Cubetto. </t>
+          <t xml:space="preserve">The laser did not cut through the wood, making it impossible to disattach the animal body parts without ruining them. </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5074368715286255</v>
+        <v>0.6691953539848328</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Therefore, I used Photoshop, Blender and Spark AR Studio and made a interactive 3D sticker prototype, where a 3D Melody will appear upon detection of smile. </t>
+          <t xml:space="preserve">The "old" laser cut was fixed, and it printed perfectly. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5526301264762878</v>
+        <v>0.5965055227279663</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adding digital affordability  We researched extensively about toys for developing technological competency and computational thinking, such as Cubetto. </t>
+          <t xml:space="preserve">However, once I tried to connect the parts, I realized that the fitting parts were too wide and the legs could pass through them. </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5074368715286255</v>
+        <v>0.5316996574401855</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Therefore, I used Photoshop, Blender and Spark AR Studio and made a interactive 3D sticker prototype, where a 3D Melody will appear upon detection of smile. </t>
+          <t xml:space="preserve">I collect rubber duckies and my family calls me ducky, so I knew I wanted to make a duck. </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5526301264762878</v>
+        <v>0.4880358576774597</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will use the laser cutter to cut multiple slots in the board to allow him to customize and move the sticks to different locations to create his own obstacles at different heights around the board. </t>
+          <t xml:space="preserve">I googled a few laser cut duck ideas I began by sketching out my ideas of what pieces I would need to make this duck I then brought a rubber duck image into Illustrator and used the pen tool to cut out each piece  Prototype: I cut out my images in Illustrator and decided to make the little "hooks" to hold the wings I then cut everything onto cardboard to test it out Successful score attempt Failed latch attempt  Once I knew my simple design would work, I then began to play around with how I could make the duck's tail wiggle...this was very challenging! </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1027,18 +1027,18 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6595578789710999</v>
+        <v>0.5034952759742737</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">There will be lights on the hoops that can be switched on/off or change colors. </t>
+          <t xml:space="preserve">Test: Once I confirmed that all of my pieces would fit, I then painted the wood and began to cut my pieces. </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1047,18 +1047,18 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.647237241268158</v>
+        <v>0.6379852294921875</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will drill holes into the sticks to allow him to connect pipe cleaners to create different shapes with. </t>
+          <t xml:space="preserve">In order to get the detail on both sides of the duck I had to reflect the body and the wings and then engrave on both sides. </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1067,38 +1067,38 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6379289627075195</v>
+        <v>0.7360839247703552</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Process of creating a switch that can change the color of the LED lights. </t>
+          <t xml:space="preserve">However, making measurements exact so that things could slide into place as well as attempting to add an element of difficulty by making the duck wiggle really made me go through many iterations before everything worked. </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5906245708465576</v>
+        <v>0.3727069795131683</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">These will be added to the loops on the obstacle course and he will be able to control the lights by using the switch. </t>
+          <t xml:space="preserve">For example, when making the second wing I just rotated it 180 degrees at first, but then realized wait...I need this to be a reflection... </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1107,18 +1107,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6405292749404907</v>
+        <v>0.6024638414382935</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prototype Testing: we added different materials and objects to test whether the drone would fly with added weight, or different shapes, and how this affected control and maneuvering around objects. </t>
+          <t xml:space="preserve">Sketches and prototypes  A new skill I learnt:Â How to make a hinge/connecting parts: Make sure the slot that's cut open has the same width as the thickness of the material I'm gonna use  V1-- creating a 3-D dog V2-- calculating to create the connecting pieces V3-- fine tuning... </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7641851902008057</v>
+        <v>0.6944023370742798</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">How to incorporate technological tool:  Klotski: wood, laser cut or engraved Tangrams: 3d printed pieces, 2d constructed boards, 3d wood base for board, velcro Sculpture: clay Pom pom pets: gather materials from lab, construct accessories using circuit ? </t>
+          <t xml:space="preserve">My first sketch for the slot kept me up until 4am that day since I was determined to calculate all the length and then turn them into ovals. </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1147,18 +1147,18 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7479255199432373</v>
+        <v>0.5483562350273132</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">History cards: 2d illustration design, print, laminate Sound when opening the box: gogo board Snitch: construct using lab materials, sewing it using sewing machine  Powerful Responses from User-testing Interview  "Everything is more fun when its physical; I felt every activity is less engaging when conducting virtually because you never know who is the host..."  Ideas before Interview #2:  There are four sections in this game box, each corresponding to one of the Harry Potter houses. </t>
+          <t xml:space="preserve">I also learnt about the differences in materials --- my pieces were fitting together when printed on cardboard, but not mdf. </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1167,18 +1167,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5608336925506592</v>
+        <v>0.5591772198677063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">We are going to change the cards to get rid of the word scramble and instead redesign it as a 2 player game, where one player guesses the historical figure  An example of how the box could look; we hope to including some code/electronic/mechanism elements into the design - when the box opens it will make a sound by connecting it to a gogo board. </t>
+          <t xml:space="preserve">My final adjustments were done by trail and error --- cutting and fitting and adjusting and go through the process again. </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1187,18 +1187,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6046757102012634</v>
+        <v>0.6851016283035278</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will construct ones with numbers as she prefers, instead of the picture and number types shown here  Four things that we mainly focus on our user-testing process was:  1. </t>
+          <t xml:space="preserve">Inspiration  Drawing: prototype  I chose to create a sea turtle as I grew up in Florida, which is one of the nesting/hatching areas along the Atlantic coast. </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1207,11 +1207,231 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7441791892051697</v>
+        <v>0.5523353219032288</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drawing: Final  Prototype, cardboard cutout  I realized the importance of printing cardboard prototypes during the process. </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5670074224472046</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For example, in one prototype, the printer cut the pieces instead of engraving, and some of the connecting pieces were too big or too small. </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5404250025749207</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Once I was able to correct all of these issues, I then printed the final draft on plywood. </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6202520132064819</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reflection Card: I enjoyed this process of working with the laser cutter and creating the omni animal. </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8387314677238464</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Got inspirations from different materials (cotton, plush yarn, bell) available in the lab The story of Baa-Baa the sheep Baa-Baa lives in children's mind and imagination. </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6095729470252991</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It connects to topics like measuring, geometry, balance. </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7311027050018311</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time flies so fast and again I don't even realize that I am learning Build self efficacy:Â I made 3 prototypes before the final decision.Â When the prototype finally worked, I felt really happy and had the confidence in myself: I can solve problems.Â Coping with failure and the rewards of figuring everything out can help build children's self efficacy and a positive attitude Social learning: Asked classmates and TA to give feedback to my design along the way. </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4996609687805176</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inspirations Design &amp; Hand-drawing on Inkspace Final prototype  I added flames  to the base to symbolize the burning fire. </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6022219061851501</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reflection Card: The biggest takeaway I have from this assignment, besides the lovable firework smell comes from the laser cutter and knowledge and skills of how to use the machine. </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8409112691879272</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Take my experience, for instance, I had drawn many drafts on Inkscape before going to the lab, but it wasnât until I actually learned how to use the laser cutter that I realized that many of the ideas I had drafted were hard to implement in the real world, which I hadnât anticipated. </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5124456286430359</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conceiving an idea a hundred times on the computer or in your head is not the same as learning how the machine works, using it and cutting stuff out, and then assessing where it needs improvement. </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5661774873733521</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>05</t>
         </is>
       </c>
     </row>
